--- a/koboforms/ForecastError.xlsx
+++ b/koboforms/ForecastError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/anticipatoryactiondecisions/koboforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dasdoresngueussiengamini/working/AA_projets/general/aadecisionoverviewFR/koboforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD704D9-0670-9245-93A5-69A9A40E30AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE63F1-500A-7246-ADFE-144A934F28DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="-18260" windowWidth="28040" windowHeight="17440" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -63,140 +63,140 @@
     <t>version</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>Votre adresse e‑mail</t>
+  </si>
+  <si>
+    <t>Pourriez‑vous utiliser la prévision pour agir des mois avant le début de la sécheresse ?</t>
+  </si>
+  <si>
+    <t>Cela vous donnerait‑il plus de temps pour vous préparer ?</t>
+  </si>
+  <si>
+    <t>Cela pourrait‑il réduire les impacts négatifs de la sécheresse sur les populations ?</t>
+  </si>
+  <si>
+    <t>Quel pourrait être le problème lié à l’utilisation de la prévision ?</t>
+  </si>
+  <si>
+    <t>Quelle est l’année correspondant au pire événement humanitaire dans le tableau ?</t>
+  </si>
+  <si>
+    <t>La prévision d’avril s’est‑elle déclenchée cette année‑là ?</t>
+  </si>
+  <si>
+    <t>Quelle est l’année correspondant au deuxième pire événement humanitaire dans le tableau ?</t>
+  </si>
+  <si>
+    <t>Quelle est l’année correspondant au troisième pire événement humanitaire dans le tableau ?</t>
+  </si>
+  <si>
+    <t>Cette année compte‑t‑elle comme une année où vous auriez dû agir en utilisant la règle 2 ?</t>
+  </si>
+  <si>
+    <t>La prévision se déclenche‑t‑elle pour cette année‑là ?</t>
+  </si>
+  <si>
+    <t>Que pensez‑vous du risque d’agir par erreur une année qui est mauvaise, mais pas suffisamment grave pour exiger une action selon le mandat officiel ?</t>
+  </si>
+  <si>
+    <t>Une augmentation de la fréquence pourrait‑elle éviter un défaut d’action ?</t>
+  </si>
+  <si>
+    <t>Une augmentation de la fréquence pourrait‑elle entraîner davantage d’actions vaines ?</t>
+  </si>
+  <si>
+    <t>Le nombre de crises humanitaires a‑t‑il un impact sur la fréquence d’action ?</t>
+  </si>
+  <si>
+    <t>Le coût de l’action et le budget ont‑ils un impact sur la fréquence d’action ?</t>
+  </si>
+  <si>
+    <t>La précision de la prévision a‑t‑elle un impact sur la fréquence d’action ?</t>
+  </si>
+  <si>
+    <t>Les acteurs humanitaires, les gestionnaires de financements et les scientifiques des prévisions doivent‑ils travailler ensemble pour déterminer les meilleurs seuils de déclenchement ?</t>
+  </si>
+  <si>
+    <t>L’un de ces experts peut‑il déterminer correctement les seuils de déclenchement sans consulter les autres ?</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Forecast Error FR</t>
+  </si>
+  <si>
+    <t>ForecasterrorFR</t>
+  </si>
+  <si>
     <t>v1</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>Your email</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>Forecast Error</t>
-  </si>
-  <si>
-    <t>Forecasterror</t>
-  </si>
-  <si>
-    <t>Could you use the forecast to take action months before the drought starts?</t>
-  </si>
-  <si>
-    <t>Would that give you more time to prepare?</t>
-  </si>
-  <si>
-    <t>Could that reduce the negative impacts of drought on people?</t>
-  </si>
-  <si>
-    <t>What might be the problem with using the forecast?</t>
-  </si>
-  <si>
-    <t>Which year is the worst humanitarian event in the table?</t>
-  </si>
-  <si>
-    <t>Did the April forecast trigger in that year?</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t>Which year is the second worst humanitarian event in the table?</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>Which year is the third worst humanitarian event in the table?</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>Does this year count as a year you would have needed to act using rule 2?</t>
-  </si>
-  <si>
-    <t>Does the forecast trigger for that year?</t>
-  </si>
-  <si>
-    <t>q11</t>
-  </si>
-  <si>
-    <t>q12</t>
-  </si>
-  <si>
-    <t>What are your thoughts about if you would accidentally act in a year that was bad, but not so bad that action was required by official mandate?</t>
-  </si>
-  <si>
-    <t>Could increasing frequency prevent failure to act?</t>
-  </si>
-  <si>
-    <t>Could increasing frequency cause more actions in vain?</t>
-  </si>
-  <si>
-    <t>Does the number of humanitarian crises impact the action frequency?</t>
-  </si>
-  <si>
-    <t>Does the action cost and budget impact the action frequency?</t>
-  </si>
-  <si>
-    <t>Does the forecast accuracy impact the action frequency?</t>
-  </si>
-  <si>
-    <t>Do humanitarian actors, funding managers, and forecast scientists all need to work together to determine the best forecast triggers?</t>
-  </si>
-  <si>
-    <t>Can any of those experts correctly determine triggers without consulting the others?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +224,12 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C7F9E-9867-6243-AAB9-77628DC2993D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,10 +602,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -607,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -618,27 +624,27 @@
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -646,41 +652,41 @@
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -688,13 +694,13 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -705,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
@@ -716,13 +722,13 @@
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -733,129 +739,129 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -871,14 +877,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -889,24 +895,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -916,15 +922,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF2FC2-2B0D-0B42-899E-2C094C966549}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,19 +940,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>